--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H2">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I2">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J2">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.38224566666667</v>
+        <v>9.357204333333334</v>
       </c>
       <c r="N2">
-        <v>34.146737</v>
+        <v>28.071613</v>
       </c>
       <c r="O2">
-        <v>0.1566699514372173</v>
+        <v>0.09488819927388772</v>
       </c>
       <c r="P2">
-        <v>0.1653163356343774</v>
+        <v>0.09723921246361458</v>
       </c>
       <c r="Q2">
-        <v>1411.272658499395</v>
+        <v>1019.450416314529</v>
       </c>
       <c r="R2">
-        <v>12701.45392649456</v>
+        <v>9175.053746830763</v>
       </c>
       <c r="S2">
-        <v>0.03062064366011458</v>
+        <v>0.01445774331415609</v>
       </c>
       <c r="T2">
-        <v>0.03529209847510785</v>
+        <v>0.01604892050911469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H3">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I3">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J3">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>10.401066</v>
       </c>
       <c r="O3">
-        <v>0.04772152914977769</v>
+        <v>0.03515788078400975</v>
       </c>
       <c r="P3">
-        <v>0.05035521015701474</v>
+        <v>0.03602897584196811</v>
       </c>
       <c r="Q3">
-        <v>429.872408161508</v>
+        <v>377.7257496323741</v>
       </c>
       <c r="R3">
-        <v>3868.851673453572</v>
+        <v>3399.531746691366</v>
       </c>
       <c r="S3">
-        <v>0.009327021075874197</v>
+        <v>0.005356868606787796</v>
       </c>
       <c r="T3">
-        <v>0.01074994209602212</v>
+        <v>0.005946429991182034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H4">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I4">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J4">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.711605</v>
+        <v>42.666574</v>
       </c>
       <c r="N4">
-        <v>65.134815</v>
+        <v>127.999722</v>
       </c>
       <c r="O4">
-        <v>0.2988475385780532</v>
+        <v>0.4326670907061247</v>
       </c>
       <c r="P4">
-        <v>0.3153404947015312</v>
+        <v>0.4433871385602816</v>
       </c>
       <c r="Q4">
-        <v>2691.999048867137</v>
+        <v>4648.445740579426</v>
       </c>
       <c r="R4">
-        <v>24227.99143980423</v>
+        <v>41836.01166521483</v>
       </c>
       <c r="S4">
-        <v>0.05840880081697077</v>
+        <v>0.0659237901633703</v>
       </c>
       <c r="T4">
-        <v>0.067319589134913</v>
+        <v>0.07317917084304269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H5">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I5">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J5">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.399407</v>
+        <v>7.15268</v>
       </c>
       <c r="N5">
-        <v>22.798814</v>
+        <v>14.30536</v>
       </c>
       <c r="O5">
-        <v>0.1569061671488326</v>
+        <v>0.07253287424370854</v>
       </c>
       <c r="P5">
-        <v>0.1103770584958013</v>
+        <v>0.04955333134610019</v>
       </c>
       <c r="Q5">
-        <v>1413.400474154231</v>
+        <v>779.2714943488934</v>
       </c>
       <c r="R5">
-        <v>8480.402844925389</v>
+        <v>4675.628966093361</v>
       </c>
       <c r="S5">
-        <v>0.03066681126957598</v>
+        <v>0.01105154998912581</v>
       </c>
       <c r="T5">
-        <v>0.02356353957930643</v>
+        <v>0.008178567633226807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H6">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I6">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J6">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.690829</v>
+        <v>35.96946000000001</v>
       </c>
       <c r="N6">
-        <v>74.07248700000001</v>
+        <v>107.90838</v>
       </c>
       <c r="O6">
-        <v>0.3398548136861193</v>
+        <v>0.3647539549922693</v>
       </c>
       <c r="P6">
-        <v>0.3586109010112755</v>
+        <v>0.3737913417880355</v>
       </c>
       <c r="Q6">
-        <v>3061.38989649734</v>
+        <v>3918.807334470821</v>
       </c>
       <c r="R6">
-        <v>27552.50906847606</v>
+        <v>35269.26601023738</v>
       </c>
       <c r="S6">
-        <v>0.06642354229762773</v>
+        <v>0.05557613164182672</v>
       </c>
       <c r="T6">
-        <v>0.07655705157128619</v>
+        <v>0.06169267910922472</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I7">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J7">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.38224566666667</v>
+        <v>9.357204333333334</v>
       </c>
       <c r="N7">
-        <v>34.146737</v>
+        <v>28.071613</v>
       </c>
       <c r="O7">
-        <v>0.1566699514372173</v>
+        <v>0.09488819927388772</v>
       </c>
       <c r="P7">
-        <v>0.1653163356343774</v>
+        <v>0.09723921246361458</v>
       </c>
       <c r="Q7">
-        <v>2404.250429429784</v>
+        <v>1976.504742167215</v>
       </c>
       <c r="R7">
-        <v>21638.25386486806</v>
+        <v>17788.54267950494</v>
       </c>
       <c r="S7">
-        <v>0.05216546584805705</v>
+        <v>0.02803059154634689</v>
       </c>
       <c r="T7">
-        <v>0.06012377721855556</v>
+        <v>0.03111555695627191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I8">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J8">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>10.401066</v>
       </c>
       <c r="O8">
-        <v>0.04772152914977769</v>
+        <v>0.03515788078400975</v>
       </c>
       <c r="P8">
-        <v>0.05035521015701474</v>
+        <v>0.03602897584196811</v>
       </c>
       <c r="Q8">
         <v>732.3325621721199</v>
@@ -948,10 +948,10 @@
         <v>6590.99305954908</v>
       </c>
       <c r="S8">
-        <v>0.015889554928964</v>
+        <v>0.01038586677198051</v>
       </c>
       <c r="T8">
-        <v>0.01831364955953164</v>
+        <v>0.01152890507321198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I9">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J9">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.711605</v>
+        <v>42.666574</v>
       </c>
       <c r="N9">
-        <v>65.134815</v>
+        <v>127.999722</v>
       </c>
       <c r="O9">
-        <v>0.2988475385780532</v>
+        <v>0.4326670907061247</v>
       </c>
       <c r="P9">
-        <v>0.3153404947015312</v>
+        <v>0.4433871385602816</v>
       </c>
       <c r="Q9">
-        <v>4586.101651076633</v>
+        <v>9012.380497304706</v>
       </c>
       <c r="R9">
-        <v>41274.9148596897</v>
+        <v>81111.42447574236</v>
       </c>
       <c r="S9">
-        <v>0.09950549498776454</v>
+        <v>0.1278126741569126</v>
       </c>
       <c r="T9">
-        <v>0.1146859539238502</v>
+        <v>0.1418793654742238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I10">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J10">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.399407</v>
+        <v>7.15268</v>
       </c>
       <c r="N10">
-        <v>22.798814</v>
+        <v>14.30536</v>
       </c>
       <c r="O10">
-        <v>0.1569061671488326</v>
+        <v>0.07253287424370854</v>
       </c>
       <c r="P10">
-        <v>0.1103770584958013</v>
+        <v>0.04955333134610019</v>
       </c>
       <c r="Q10">
-        <v>2407.875385720886</v>
+        <v>1510.847197046133</v>
       </c>
       <c r="R10">
-        <v>14447.25231432532</v>
+        <v>9065.0831822768</v>
       </c>
       <c r="S10">
-        <v>0.05224411719455967</v>
+        <v>0.02142668305612411</v>
       </c>
       <c r="T10">
-        <v>0.04014295169061938</v>
+        <v>0.01585656099847109</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I11">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J11">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.690829</v>
+        <v>35.96946000000001</v>
       </c>
       <c r="N11">
-        <v>74.07248700000001</v>
+        <v>107.90838</v>
       </c>
       <c r="O11">
-        <v>0.3398548136861193</v>
+        <v>0.3647539549922693</v>
       </c>
       <c r="P11">
-        <v>0.3586109010112755</v>
+        <v>0.3737913417880355</v>
       </c>
       <c r="Q11">
-        <v>5215.397555517007</v>
+        <v>7597.7616530116</v>
       </c>
       <c r="R11">
-        <v>46938.57799965306</v>
+        <v>68379.8548771044</v>
       </c>
       <c r="S11">
-        <v>0.1131594445138096</v>
+        <v>0.1077506919252552</v>
       </c>
       <c r="T11">
-        <v>0.1304229363529626</v>
+        <v>0.1196094198060166</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H12">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I12">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J12">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.38224566666667</v>
+        <v>9.357204333333334</v>
       </c>
       <c r="N12">
-        <v>34.146737</v>
+        <v>28.071613</v>
       </c>
       <c r="O12">
-        <v>0.1566699514372173</v>
+        <v>0.09488819927388772</v>
       </c>
       <c r="P12">
-        <v>0.1653163356343774</v>
+        <v>0.09723921246361458</v>
       </c>
       <c r="Q12">
-        <v>883.656540929145</v>
+        <v>1021.535996802364</v>
       </c>
       <c r="R12">
-        <v>7952.908868362303</v>
+        <v>9193.823971221278</v>
       </c>
       <c r="S12">
-        <v>0.01917285925916802</v>
+        <v>0.01448732080696161</v>
       </c>
       <c r="T12">
-        <v>0.02209785151921295</v>
+        <v>0.01608175321478528</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H13">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I13">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J13">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>10.401066</v>
       </c>
       <c r="O13">
-        <v>0.04772152914977769</v>
+        <v>0.03515788078400975</v>
       </c>
       <c r="P13">
-        <v>0.05035521015701474</v>
+        <v>0.03602897584196811</v>
       </c>
       <c r="Q13">
-        <v>269.161003686406</v>
+        <v>378.498496830844</v>
       </c>
       <c r="R13">
-        <v>2422.449033177654</v>
+        <v>3406.486471477596</v>
       </c>
       <c r="S13">
-        <v>0.005840036035165459</v>
+        <v>0.005367827629868685</v>
       </c>
       <c r="T13">
-        <v>0.006730986100063794</v>
+        <v>0.005958595132481127</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H14">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I14">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J14">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.711605</v>
+        <v>42.666574</v>
       </c>
       <c r="N14">
-        <v>65.134815</v>
+        <v>127.999722</v>
       </c>
       <c r="O14">
-        <v>0.2988475385780532</v>
+        <v>0.4326670907061247</v>
       </c>
       <c r="P14">
-        <v>0.3153404947015312</v>
+        <v>0.4433871385602816</v>
       </c>
       <c r="Q14">
-        <v>1685.572630759999</v>
+        <v>4657.955479925416</v>
       </c>
       <c r="R14">
-        <v>15170.15367683999</v>
+        <v>41921.59931932874</v>
       </c>
       <c r="S14">
-        <v>0.03657218084606287</v>
+        <v>0.06605865633071752</v>
       </c>
       <c r="T14">
-        <v>0.04215159623015821</v>
+        <v>0.07332887998866053</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H15">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I15">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J15">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.399407</v>
+        <v>7.15268</v>
       </c>
       <c r="N15">
-        <v>22.798814</v>
+        <v>14.30536</v>
       </c>
       <c r="O15">
-        <v>0.1569061671488326</v>
+        <v>0.07253287424370854</v>
       </c>
       <c r="P15">
-        <v>0.1103770584958013</v>
+        <v>0.04955333134610019</v>
       </c>
       <c r="Q15">
-        <v>884.9888548586778</v>
+        <v>780.8657194306934</v>
       </c>
       <c r="R15">
-        <v>5309.933129152066</v>
+        <v>4685.19431658416</v>
       </c>
       <c r="S15">
-        <v>0.01920176672069499</v>
+        <v>0.01107415912896115</v>
       </c>
       <c r="T15">
-        <v>0.01475411271613312</v>
+        <v>0.008195299257248267</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H16">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I16">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J16">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.690829</v>
+        <v>35.96946000000001</v>
       </c>
       <c r="N16">
-        <v>74.07248700000001</v>
+        <v>107.90838</v>
       </c>
       <c r="O16">
-        <v>0.3398548136861193</v>
+        <v>0.3647539549922693</v>
       </c>
       <c r="P16">
-        <v>0.3586109010112755</v>
+        <v>0.3737913417880355</v>
       </c>
       <c r="Q16">
-        <v>1916.863612486284</v>
+        <v>3926.82438756292</v>
       </c>
       <c r="R16">
-        <v>17251.77251237656</v>
+        <v>35341.41948806628</v>
       </c>
       <c r="S16">
-        <v>0.04159054401676954</v>
+        <v>0.05568982868278785</v>
       </c>
       <c r="T16">
-        <v>0.04793555587419176</v>
+        <v>0.06181888931595318</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H17">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I17">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J17">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.38224566666667</v>
+        <v>9.357204333333334</v>
       </c>
       <c r="N17">
-        <v>34.146737</v>
+        <v>28.071613</v>
       </c>
       <c r="O17">
-        <v>0.1566699514372173</v>
+        <v>0.09488819927388772</v>
       </c>
       <c r="P17">
-        <v>0.1653163356343774</v>
+        <v>0.09723921246361458</v>
       </c>
       <c r="Q17">
-        <v>1830.069926142431</v>
+        <v>1542.066516199782</v>
       </c>
       <c r="R17">
-        <v>10980.41955685459</v>
+        <v>9252.399097198693</v>
       </c>
       <c r="S17">
-        <v>0.03970736536558758</v>
+        <v>0.02186943230174011</v>
       </c>
       <c r="T17">
-        <v>0.0305100542458499</v>
+        <v>0.01618421229203566</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H18">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I18">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J18">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>10.401066</v>
       </c>
       <c r="O18">
-        <v>0.04772152914977769</v>
+        <v>0.03515788078400975</v>
       </c>
       <c r="P18">
-        <v>0.05035521015701474</v>
+        <v>0.03602897584196811</v>
       </c>
       <c r="Q18">
-        <v>557.437686840255</v>
+        <v>571.364944771218</v>
       </c>
       <c r="R18">
-        <v>3344.62612104153</v>
+        <v>3428.189668627308</v>
       </c>
       <c r="S18">
-        <v>0.01209482850011673</v>
+        <v>0.008103040204812272</v>
       </c>
       <c r="T18">
-        <v>0.009293335637740877</v>
+        <v>0.005996558167408271</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H19">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I19">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J19">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.711605</v>
+        <v>42.666574</v>
       </c>
       <c r="N19">
-        <v>65.134815</v>
+        <v>127.999722</v>
       </c>
       <c r="O19">
-        <v>0.2988475385780532</v>
+        <v>0.4326670907061247</v>
       </c>
       <c r="P19">
-        <v>0.3153404947015312</v>
+        <v>0.4433871385602816</v>
       </c>
       <c r="Q19">
-        <v>3490.853784253263</v>
+        <v>7031.447939207506</v>
       </c>
       <c r="R19">
-        <v>20945.12270551957</v>
+        <v>42188.68763524503</v>
       </c>
       <c r="S19">
-        <v>0.07574169963077157</v>
+        <v>0.09971928777019527</v>
       </c>
       <c r="T19">
-        <v>0.05819785178722633</v>
+        <v>0.07379606844001262</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H20">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I20">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J20">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.399407</v>
+        <v>7.15268</v>
       </c>
       <c r="N20">
-        <v>22.798814</v>
+        <v>14.30536</v>
       </c>
       <c r="O20">
-        <v>0.1569061671488326</v>
+        <v>0.07253287424370854</v>
       </c>
       <c r="P20">
-        <v>0.1103770584958013</v>
+        <v>0.04955333134610019</v>
       </c>
       <c r="Q20">
-        <v>1832.829174268467</v>
+        <v>1178.76108463292</v>
       </c>
       <c r="R20">
-        <v>7331.316697073869</v>
+        <v>4715.044338531679</v>
       </c>
       <c r="S20">
-        <v>0.03976723328205882</v>
+        <v>0.01671707119601682</v>
       </c>
       <c r="T20">
-        <v>0.02037070341101822</v>
+        <v>0.008247512643965107</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H21">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I21">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J21">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.690829</v>
+        <v>35.96946000000001</v>
       </c>
       <c r="N21">
-        <v>74.07248700000001</v>
+        <v>107.90838</v>
       </c>
       <c r="O21">
-        <v>0.3398548136861193</v>
+        <v>0.3647539549922693</v>
       </c>
       <c r="P21">
-        <v>0.3586109010112755</v>
+        <v>0.3737913417880355</v>
       </c>
       <c r="Q21">
-        <v>3969.861917209723</v>
+        <v>5927.76409447374</v>
       </c>
       <c r="R21">
-        <v>23819.17150325834</v>
+        <v>35566.58456684244</v>
       </c>
       <c r="S21">
-        <v>0.08613482760729776</v>
+        <v>0.08406695444256967</v>
       </c>
       <c r="T21">
-        <v>0.06618364725434854</v>
+        <v>0.06221274602245534</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H22">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I22">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J22">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.38224566666667</v>
+        <v>9.357204333333334</v>
       </c>
       <c r="N22">
-        <v>34.146737</v>
+        <v>28.071613</v>
       </c>
       <c r="O22">
-        <v>0.1566699514372173</v>
+        <v>0.09488819927388772</v>
       </c>
       <c r="P22">
-        <v>0.1653163356343774</v>
+        <v>0.09723921246361458</v>
       </c>
       <c r="Q22">
-        <v>691.5006462687082</v>
+        <v>1131.238544159621</v>
       </c>
       <c r="R22">
-        <v>6223.505816418374</v>
+        <v>10181.14689743659</v>
       </c>
       <c r="S22">
-        <v>0.01500361730429012</v>
+        <v>0.01604311130468302</v>
       </c>
       <c r="T22">
-        <v>0.01729255417565112</v>
+        <v>0.01780876949140703</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H23">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I23">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J23">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>10.401066</v>
       </c>
       <c r="O23">
-        <v>0.04772152914977769</v>
+        <v>0.03515788078400975</v>
       </c>
       <c r="P23">
-        <v>0.05035521015701474</v>
+        <v>0.03602897584196811</v>
       </c>
       <c r="Q23">
-        <v>210.630487501148</v>
+        <v>419.145375064416</v>
       </c>
       <c r="R23">
-        <v>1895.674387510332</v>
+        <v>3772.308375579744</v>
       </c>
       <c r="S23">
-        <v>0.004570088609657305</v>
+        <v>0.005944277570560486</v>
       </c>
       <c r="T23">
-        <v>0.005267296763656301</v>
+        <v>0.006598487477684698</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H24">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I24">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J24">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.711605</v>
+        <v>42.666574</v>
       </c>
       <c r="N24">
-        <v>65.134815</v>
+        <v>127.999722</v>
       </c>
       <c r="O24">
-        <v>0.2988475385780532</v>
+        <v>0.4326670907061247</v>
       </c>
       <c r="P24">
-        <v>0.3153404947015312</v>
+        <v>0.4433871385602816</v>
       </c>
       <c r="Q24">
-        <v>1319.035744677237</v>
+        <v>5158.172391736673</v>
       </c>
       <c r="R24">
-        <v>11871.32170209513</v>
+        <v>46423.55152563006</v>
       </c>
       <c r="S24">
-        <v>0.02861936229648344</v>
+        <v>0.07315268228492904</v>
       </c>
       <c r="T24">
-        <v>0.03298550362538339</v>
+        <v>0.08120365381434197</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H25">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I25">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J25">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.399407</v>
+        <v>7.15268</v>
       </c>
       <c r="N25">
-        <v>22.798814</v>
+        <v>14.30536</v>
       </c>
       <c r="O25">
-        <v>0.1569061671488326</v>
+        <v>0.07253287424370854</v>
       </c>
       <c r="P25">
-        <v>0.1103770584958013</v>
+        <v>0.04955333134610019</v>
       </c>
       <c r="Q25">
-        <v>692.5432413275713</v>
+        <v>864.72273360704</v>
       </c>
       <c r="R25">
-        <v>4155.259447965428</v>
+        <v>5188.336401642241</v>
       </c>
       <c r="S25">
-        <v>0.01502623868194311</v>
+        <v>0.01226341087348064</v>
       </c>
       <c r="T25">
-        <v>0.01154575109872411</v>
+        <v>0.009075390813188915</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H26">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I26">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J26">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.690829</v>
+        <v>35.96946000000001</v>
       </c>
       <c r="N26">
-        <v>74.07248700000001</v>
+        <v>107.90838</v>
       </c>
       <c r="O26">
-        <v>0.3398548136861193</v>
+        <v>0.3647539549922693</v>
       </c>
       <c r="P26">
-        <v>0.3586109010112755</v>
+        <v>0.3737913417880355</v>
       </c>
       <c r="Q26">
-        <v>1500.03125133832</v>
+        <v>4348.525276898881</v>
       </c>
       <c r="R26">
-        <v>13500.28126204487</v>
+        <v>39136.72749208993</v>
       </c>
       <c r="S26">
-        <v>0.03254645525061459</v>
+        <v>0.06167034829982983</v>
       </c>
       <c r="T26">
-        <v>0.03751170995848632</v>
+        <v>0.06845760753438561</v>
       </c>
     </row>
   </sheetData>
